--- a/docs/total_import.xlsx
+++ b/docs/total_import.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandra.ULTRABOOK\dev\ConferencesSystem\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E764C00B-7C09-4713-BD97-0795611E37B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D09A87-195E-48A6-8295-922CED399C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Активности" sheetId="3" r:id="rId1"/>
@@ -20,9 +20,10 @@
     <sheet name="Страны" sheetId="1" r:id="rId5"/>
     <sheet name="Город" sheetId="2" r:id="rId6"/>
     <sheet name="Жюри" sheetId="4" r:id="rId7"/>
-    <sheet name="Модераторы" sheetId="6" r:id="rId8"/>
-    <sheet name="Организаторы" sheetId="7" r:id="rId9"/>
-    <sheet name="Участники" sheetId="8" r:id="rId10"/>
+    <sheet name="Фото пользователей" sheetId="11" r:id="rId8"/>
+    <sheet name="Модераторы" sheetId="6" r:id="rId9"/>
+    <sheet name="Организаторы" sheetId="7" r:id="rId10"/>
+    <sheet name="Участники" sheetId="8" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5246" uniqueCount="3334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5369" uniqueCount="3335">
   <si>
     <t>Название страны</t>
   </si>
@@ -10046,6 +10047,9 @@
   </si>
   <si>
     <t>активность</t>
+  </si>
+  <si>
+    <t>картинка</t>
   </si>
 </sst>
 </file>
@@ -10056,7 +10060,7 @@
     <numFmt numFmtId="164" formatCode="\+\7&quot; &quot;\(#\)&quot; &quot;000\-00\-00"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="172" formatCode="&quot;0001-01-01&quot;\ hh:mm:ss"/>
+    <numFmt numFmtId="167" formatCode="&quot;0001-01-01&quot;\ hh:mm:ss"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -10148,12 +10152,24 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="11">
@@ -10278,7 +10294,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -10460,27 +10476,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка 2" xfId="2" xr:uid="{B466C7D6-DAE7-4304-876F-19F58CD4624D}"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{CCC46C9D-A759-4BAF-8DED-54DC7C7A6319}"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -11824,7 +11832,7 @@
       </c>
       <c r="N32" s="2"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" ht="27" x14ac:dyDescent="0.3">
       <c r="A33" s="59"/>
       <c r="B33" s="57"/>
       <c r="C33" s="58"/>
@@ -11952,7 +11960,7 @@
       </c>
       <c r="N36" s="2"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" ht="27" x14ac:dyDescent="0.3">
       <c r="A37" s="46"/>
       <c r="B37" s="57"/>
       <c r="C37" s="58"/>
@@ -12156,7 +12164,7 @@
       </c>
       <c r="B44" s="72"/>
       <c r="C44" s="78">
-        <f>VLOOKUP(A44,$A$81:$B$100,2,FALSE)</f>
+        <f t="shared" ref="C44:C73" si="0">VLOOKUP(A44,$A$81:$B$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="D44" s="61" t="s">
@@ -12179,7 +12187,7 @@
         <v>3014</v>
       </c>
       <c r="C45" s="78">
-        <f>VLOOKUP(A45,$A$81:$B$100,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D45" s="61" t="s">
@@ -12205,7 +12213,7 @@
         <v>3014</v>
       </c>
       <c r="C46" s="78">
-        <f>VLOOKUP(A46,$A$81:$B$100,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D46" s="61" t="s">
@@ -12232,7 +12240,7 @@
         <v>3017</v>
       </c>
       <c r="C47" s="78">
-        <f>VLOOKUP(A47,$A$81:$B$100,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D47" s="61" t="s">
@@ -12259,7 +12267,7 @@
         <v>3017</v>
       </c>
       <c r="C48" s="78">
-        <f>VLOOKUP(A48,$A$81:$B$100,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D48" s="61" t="s">
@@ -12285,7 +12293,7 @@
         <v>3017</v>
       </c>
       <c r="C49" s="78">
-        <f>VLOOKUP(A49,$A$81:$B$100,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D49" s="61" t="s">
@@ -12307,7 +12315,7 @@
         <v>3018</v>
       </c>
       <c r="C50" s="78">
-        <f>VLOOKUP(A50,$A$81:$B$100,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D50" s="61" t="s">
@@ -12329,7 +12337,7 @@
         <v>3018</v>
       </c>
       <c r="C51" s="78">
-        <f>VLOOKUP(A51,$A$81:$B$100,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D51" s="61" t="s">
@@ -12351,7 +12359,7 @@
         <v>3018</v>
       </c>
       <c r="C52" s="78">
-        <f>VLOOKUP(A52,$A$81:$B$100,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D52" s="61" t="s">
@@ -12373,7 +12381,7 @@
         <v>3019</v>
       </c>
       <c r="C53" s="78">
-        <f>VLOOKUP(A53,$A$81:$B$100,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D53" s="61" t="s">
@@ -12395,7 +12403,7 @@
         <v>3019</v>
       </c>
       <c r="C54" s="78">
-        <f>VLOOKUP(A54,$A$81:$B$100,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D54" s="61" t="s">
@@ -12417,7 +12425,7 @@
         <v>3019</v>
       </c>
       <c r="C55" s="78">
-        <f>VLOOKUP(A55,$A$81:$B$100,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D55" s="61" t="s">
@@ -12439,7 +12447,7 @@
         <v>3020</v>
       </c>
       <c r="C56" s="78">
-        <f>VLOOKUP(A56,$A$81:$B$100,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D56" s="61" t="s">
@@ -12461,7 +12469,7 @@
         <v>3020</v>
       </c>
       <c r="C57" s="78">
-        <f>VLOOKUP(A57,$A$81:$B$100,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D57" s="61" t="s">
@@ -12483,7 +12491,7 @@
         <v>3020</v>
       </c>
       <c r="C58" s="78">
-        <f>VLOOKUP(A58,$A$81:$B$100,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D58" s="61" t="s">
@@ -12505,7 +12513,7 @@
         <v>3024</v>
       </c>
       <c r="C59" s="78">
-        <f>VLOOKUP(A59,$A$81:$B$100,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D59" s="61" t="s">
@@ -12527,7 +12535,7 @@
         <v>3024</v>
       </c>
       <c r="C60" s="78">
-        <f>VLOOKUP(A60,$A$81:$B$100,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D60" s="61" t="s">
@@ -12549,7 +12557,7 @@
         <v>3024</v>
       </c>
       <c r="C61" s="78">
-        <f>VLOOKUP(A61,$A$81:$B$100,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D61" s="61" t="s">
@@ -12571,7 +12579,7 @@
         <v>3027</v>
       </c>
       <c r="C62" s="78">
-        <f>VLOOKUP(A62,$A$81:$B$100,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="D62" s="61" t="s">
@@ -12593,7 +12601,7 @@
         <v>3027</v>
       </c>
       <c r="C63" s="78">
-        <f>VLOOKUP(A63,$A$81:$B$100,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="D63" s="61" t="s">
@@ -12615,7 +12623,7 @@
         <v>3027</v>
       </c>
       <c r="C64" s="78">
-        <f>VLOOKUP(A64,$A$81:$B$100,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="D64" s="61" t="s">
@@ -12637,7 +12645,7 @@
         <v>3029</v>
       </c>
       <c r="C65" s="78">
-        <f>VLOOKUP(A65,$A$81:$B$100,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="D65" s="61" t="s">
@@ -12659,7 +12667,7 @@
         <v>3029</v>
       </c>
       <c r="C66" s="78">
-        <f>VLOOKUP(A66,$A$81:$B$100,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="D66" s="61" t="s">
@@ -12681,7 +12689,7 @@
         <v>3029</v>
       </c>
       <c r="C67" s="78">
-        <f>VLOOKUP(A67,$A$81:$B$100,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="D67" s="61" t="s">
@@ -12703,7 +12711,7 @@
         <v>3032</v>
       </c>
       <c r="C68" s="78">
-        <f>VLOOKUP(A68,$A$81:$B$100,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="D68" s="61" t="s">
@@ -12725,7 +12733,7 @@
         <v>3032</v>
       </c>
       <c r="C69" s="78">
-        <f>VLOOKUP(A69,$A$81:$B$100,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="D69" s="61" t="s">
@@ -12747,7 +12755,7 @@
         <v>3032</v>
       </c>
       <c r="C70" s="78">
-        <f>VLOOKUP(A70,$A$81:$B$100,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="D70" s="61" t="s">
@@ -12769,7 +12777,7 @@
         <v>3033</v>
       </c>
       <c r="C71" s="78">
-        <f>VLOOKUP(A71,$A$81:$B$100,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="D71" s="61" t="s">
@@ -12791,7 +12799,7 @@
         <v>3033</v>
       </c>
       <c r="C72" s="78">
-        <f>VLOOKUP(A72,$A$81:$B$100,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="D72" s="61" t="s">
@@ -12813,7 +12821,7 @@
         <v>3033</v>
       </c>
       <c r="C73" s="78">
-        <f>VLOOKUP(A73,$A$81:$B$100,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="D73" s="61" t="s">
@@ -12882,7 +12890,7 @@
         <v>4</v>
       </c>
       <c r="I82" s="4">
-        <f t="shared" ref="I82:I90" si="0">VLOOKUP(J82,$E$81:$F$141,2,FALSE)</f>
+        <f t="shared" ref="I82:I90" si="1">VLOOKUP(J82,$E$81:$F$141,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="J82" s="4" t="s">
@@ -12906,7 +12914,7 @@
         <v>5</v>
       </c>
       <c r="I83" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="J83" s="4" t="s">
@@ -12930,7 +12938,7 @@
         <v>6</v>
       </c>
       <c r="I84" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="J84" s="4" t="s">
@@ -12954,7 +12962,7 @@
         <v>7</v>
       </c>
       <c r="I85" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="J85" s="4" t="s">
@@ -12978,7 +12986,7 @@
         <v>11</v>
       </c>
       <c r="I86" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="J86" s="4" t="s">
@@ -13002,7 +13010,7 @@
         <v>14</v>
       </c>
       <c r="I87" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="J87" s="4" t="s">
@@ -13026,7 +13034,7 @@
         <v>16</v>
       </c>
       <c r="I88" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="J88" s="4" t="s">
@@ -13050,7 +13058,7 @@
         <v>19</v>
       </c>
       <c r="I89" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J89" s="4" t="s">
@@ -13074,7 +13082,7 @@
         <v>20</v>
       </c>
       <c r="I90" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="J90" s="4" t="s">
@@ -13627,6 +13635,440 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{244DA8B0-91AE-447A-8CC2-5DB918BFB18D}">
+  <dimension ref="A1:L15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="19"/>
+      <c r="C1" s="32" t="s">
+        <v>3076</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>3077</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>2961</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>2962</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>2964</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>2965</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>3118</v>
+      </c>
+      <c r="J1" s="44" t="s">
+        <v>3267</v>
+      </c>
+      <c r="L1" t="s">
+        <v>3078</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="24">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3256</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>3079</v>
+      </c>
+      <c r="D2" s="37">
+        <v>32513</v>
+      </c>
+      <c r="E2" s="34">
+        <v>1</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>3080</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>3081</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>3082</v>
+      </c>
+      <c r="I2" s="27">
+        <f t="shared" ref="I2:I11" si="0">VLOOKUP(L2,$B$14:$C$15,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>3083</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="24">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3257</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>3084</v>
+      </c>
+      <c r="D3" s="37">
+        <v>29465</v>
+      </c>
+      <c r="E3" s="34">
+        <v>87</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>3085</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>3086</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>3087</v>
+      </c>
+      <c r="I3" s="27">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J3" s="36">
+        <v>2</v>
+      </c>
+      <c r="L3" t="s">
+        <v>3088</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="24">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3258</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>3089</v>
+      </c>
+      <c r="D4" s="37">
+        <v>29647</v>
+      </c>
+      <c r="E4" s="34">
+        <v>10</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>3090</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>3091</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>3092</v>
+      </c>
+      <c r="I4" s="27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J4" s="36">
+        <v>2</v>
+      </c>
+      <c r="L4" t="s">
+        <v>3083</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="24">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3259</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>3093</v>
+      </c>
+      <c r="D5" s="37">
+        <v>29841</v>
+      </c>
+      <c r="E5" s="34">
+        <v>63</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>3094</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>3095</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>3096</v>
+      </c>
+      <c r="I5" s="27">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J5" s="36">
+        <v>2</v>
+      </c>
+      <c r="L5" t="s">
+        <v>3088</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="24">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3260</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>3097</v>
+      </c>
+      <c r="D6" s="37">
+        <v>30511</v>
+      </c>
+      <c r="E6" s="34">
+        <v>69</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>3098</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>3099</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>3100</v>
+      </c>
+      <c r="I6" s="27">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J6" s="36">
+        <v>2</v>
+      </c>
+      <c r="L6" t="s">
+        <v>3088</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="24">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3261</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>3101</v>
+      </c>
+      <c r="D7" s="37">
+        <v>29439</v>
+      </c>
+      <c r="E7" s="34">
+        <v>78</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>3102</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>3103</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>3104</v>
+      </c>
+      <c r="I7" s="27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J7" s="36">
+        <v>2</v>
+      </c>
+      <c r="L7" t="s">
+        <v>3083</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="24">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3262</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>3105</v>
+      </c>
+      <c r="D8" s="37">
+        <v>35013</v>
+      </c>
+      <c r="E8" s="34">
+        <v>59</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>3106</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>3107</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>3108</v>
+      </c>
+      <c r="I8" s="27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J8" s="36">
+        <v>2</v>
+      </c>
+      <c r="L8" t="s">
+        <v>3083</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="24">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3263</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>3109</v>
+      </c>
+      <c r="D9" s="37">
+        <v>31006</v>
+      </c>
+      <c r="E9" s="34">
+        <v>28</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>3110</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>3111</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>3042</v>
+      </c>
+      <c r="I9" s="27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J9" s="36">
+        <v>2</v>
+      </c>
+      <c r="L9" t="s">
+        <v>3083</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="24">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3264</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>3112</v>
+      </c>
+      <c r="D10" s="37">
+        <v>32522</v>
+      </c>
+      <c r="E10" s="34">
+        <v>57</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>3114</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>3037</v>
+      </c>
+      <c r="I10" s="27">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J10" s="36">
+        <v>2</v>
+      </c>
+      <c r="L10" t="s">
+        <v>3088</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="28">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3265</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>3115</v>
+      </c>
+      <c r="D11" s="38">
+        <v>29941</v>
+      </c>
+      <c r="E11" s="35">
+        <v>63</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>3116</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>3117</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>3039</v>
+      </c>
+      <c r="I11" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J11" s="36">
+        <v>2</v>
+      </c>
+      <c r="L11" t="s">
+        <v>3083</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D12" s="39"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>3078</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>3083</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>3088</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D55F82-9175-496F-AD35-EEA7196B7DAE}">
   <dimension ref="A1:I21"/>
   <sheetViews>
@@ -14259,7 +14701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D26B2E5F-00CC-4658-A0F0-DCEEDC6460C2}">
   <dimension ref="B2:AF100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M16" workbookViewId="0">
+    <sheetView topLeftCell="M16" workbookViewId="0">
       <selection activeCell="AE37" sqref="AE37"/>
     </sheetView>
   </sheetViews>
@@ -17407,10 +17849,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83290F97-CFD1-4361-BA0A-FAE7DC02E8D6}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B21"/>
+      <selection activeCell="J2" sqref="J2:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17419,7 +17861,7 @@
     <col min="3" max="3" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>3009</v>
       </c>
@@ -17439,8 +17881,11 @@
         <v>3073</v>
       </c>
       <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -17462,8 +17907,11 @@
       <c r="H2" t="s">
         <v>3075</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -17482,8 +17930,11 @@
       <c r="F3" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -17502,8 +17953,11 @@
       <c r="F4" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J4" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -17522,8 +17976,11 @@
       <c r="F5" s="15">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J5" s="36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -17542,8 +17999,11 @@
       <c r="F6" s="15">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J6" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -17562,8 +18022,11 @@
       <c r="F7" s="15">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J7" s="36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -17582,8 +18045,11 @@
       <c r="F8" s="15">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J8" s="36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -17602,8 +18068,11 @@
       <c r="F9" s="15">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J9" s="36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -17622,8 +18091,11 @@
       <c r="F10" s="15">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J10" s="36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -17642,8 +18114,11 @@
       <c r="F11" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J11" s="36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -17662,8 +18137,11 @@
       <c r="F12" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J12" s="36">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -17682,8 +18160,11 @@
       <c r="F13" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J13" s="36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -17702,8 +18183,11 @@
       <c r="F14" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J14" s="36">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -17722,8 +18206,11 @@
       <c r="F15" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J15" s="36">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -17742,8 +18229,11 @@
       <c r="F16" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J16" s="36">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -17762,8 +18252,11 @@
       <c r="F17" s="15">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J17" s="36">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -17782,8 +18275,11 @@
       <c r="F18" s="15">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J18" s="36">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="13">
         <v>18</v>
       </c>
@@ -17802,8 +18298,11 @@
       <c r="F19" s="15">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J19" s="36">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
         <v>19</v>
       </c>
@@ -17822,8 +18321,11 @@
       <c r="F20" s="15">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J20" s="36">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="16">
         <v>20</v>
       </c>
@@ -17842,14 +18344,17 @@
       <c r="F21" s="18">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J21" s="36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B23" s="9" t="s">
         <v>3034</v>
       </c>
       <c r="C23" s="9"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B24" s="9" t="s">
         <v>3035</v>
       </c>
@@ -17857,7 +18362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B25" s="9" t="s">
         <v>3040</v>
       </c>
@@ -17865,7 +18370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B26" s="9" t="s">
         <v>3043</v>
       </c>
@@ -17873,7 +18378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B27" s="9" t="s">
         <v>3047</v>
       </c>
@@ -17881,7 +18386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B28" s="9" t="s">
         <v>2967</v>
       </c>
@@ -41307,6 +41812,515 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDCD3493-659A-4005-A8C5-76EB856349F6}">
+  <dimension ref="A1:D62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="13.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="61"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C2" s="81" t="s">
+        <v>2972</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C3" s="81" t="s">
+        <v>2976</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C4" s="81" t="s">
+        <v>2979</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="81" t="s">
+        <v>2983</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C6" s="81" t="s">
+        <v>2986</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C7" s="81" t="s">
+        <v>2989</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C8" s="81" t="s">
+        <v>2993</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C9" s="81" t="s">
+        <v>2996</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C10" s="81" t="s">
+        <v>2999</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C11" s="81" t="s">
+        <v>3056</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C12" s="81" t="s">
+        <v>3058</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C13" s="81" t="s">
+        <v>3060</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C14" s="81" t="s">
+        <v>3062</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C15" s="81" t="s">
+        <v>3064</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C16" s="81" t="s">
+        <v>3066</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C17" s="81" t="s">
+        <v>3068</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C18" s="81" t="s">
+        <v>3070</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C19" s="81" t="s">
+        <v>3072</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C20" s="81" t="s">
+        <v>3186</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C21" s="81" t="s">
+        <v>3191</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>3082</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>3087</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>3092</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>3096</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>3100</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>3104</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>3108</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>3042</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>3037</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>3039</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C32" s="81" t="s">
+        <v>3037</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C33" s="81" t="s">
+        <v>3039</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C34" s="81" t="s">
+        <v>3042</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>2969</v>
+      </c>
+      <c r="D35" t="s">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>2972</v>
+      </c>
+      <c r="D36" s="36" t="s">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>2976</v>
+      </c>
+      <c r="D37" s="36" t="s">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>2979</v>
+      </c>
+      <c r="D38" s="36" t="s">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C39" s="82" t="s">
+        <v>2986</v>
+      </c>
+      <c r="D39" s="36" t="s">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C40" s="82" t="s">
+        <v>2989</v>
+      </c>
+      <c r="D40" s="36" t="s">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C41" s="82" t="s">
+        <v>2993</v>
+      </c>
+      <c r="D41" s="36" t="s">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C42" s="82" t="s">
+        <v>2996</v>
+      </c>
+      <c r="D42" s="36" t="s">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C43" s="82" t="s">
+        <v>2999</v>
+      </c>
+      <c r="D43" s="36" t="s">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C44" s="82" t="s">
+        <v>3056</v>
+      </c>
+      <c r="D44" s="36" t="s">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C45" s="82" t="s">
+        <v>3058</v>
+      </c>
+      <c r="D45" s="36" t="s">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C46" s="82" t="s">
+        <v>3060</v>
+      </c>
+      <c r="D46" s="36" t="s">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C47" s="82" t="s">
+        <v>3062</v>
+      </c>
+      <c r="D47" s="36" t="s">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C48" s="82" t="s">
+        <v>3064</v>
+      </c>
+      <c r="D48" s="36" t="s">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C49" s="82" t="s">
+        <v>3066</v>
+      </c>
+      <c r="D49" s="36" t="s">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C50" s="82" t="s">
+        <v>3068</v>
+      </c>
+      <c r="D50" s="36" t="s">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C51" s="82" t="s">
+        <v>3070</v>
+      </c>
+      <c r="D51" s="36" t="s">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C52" s="82" t="s">
+        <v>3072</v>
+      </c>
+      <c r="D52" s="36" t="s">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C53" s="81" t="s">
+        <v>2969</v>
+      </c>
+      <c r="D53" s="36" t="s">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C54" s="81" t="s">
+        <v>2972</v>
+      </c>
+      <c r="D54" s="36" t="s">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C55" s="81" t="s">
+        <v>2976</v>
+      </c>
+      <c r="D55" s="36" t="s">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C56" s="81" t="s">
+        <v>2979</v>
+      </c>
+      <c r="D56" s="36" t="s">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C57" s="81" t="s">
+        <v>2983</v>
+      </c>
+      <c r="D57" s="36" t="s">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C58" s="81" t="s">
+        <v>2986</v>
+      </c>
+      <c r="D58" s="36" t="s">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C59" s="81" t="s">
+        <v>2989</v>
+      </c>
+      <c r="D59" s="36" t="s">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C60" s="81" t="s">
+        <v>2993</v>
+      </c>
+      <c r="D60" s="36" t="s">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C61" s="81" t="s">
+        <v>2996</v>
+      </c>
+      <c r="D61" s="36" t="s">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="62" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C62" s="81" t="s">
+        <v>2999</v>
+      </c>
+      <c r="D62" s="36" t="s">
+        <v>3100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E202810-9743-4A7A-A449-BB2D3DB46545}">
   <dimension ref="B1:W47"/>
   <sheetViews>
@@ -42873,438 +43887,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{244DA8B0-91AE-447A-8CC2-5DB918BFB18D}">
-  <dimension ref="A1:L15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:J11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="19"/>
-      <c r="C1" s="32" t="s">
-        <v>3076</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>3077</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>2961</v>
-      </c>
-      <c r="F1" s="32" t="s">
-        <v>2962</v>
-      </c>
-      <c r="G1" s="32" t="s">
-        <v>2964</v>
-      </c>
-      <c r="H1" s="32" t="s">
-        <v>2965</v>
-      </c>
-      <c r="I1" s="33" t="s">
-        <v>3118</v>
-      </c>
-      <c r="J1" s="44" t="s">
-        <v>3267</v>
-      </c>
-      <c r="L1" t="s">
-        <v>3078</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="24">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3256</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>3079</v>
-      </c>
-      <c r="D2" s="37">
-        <v>32513</v>
-      </c>
-      <c r="E2" s="34">
-        <v>1</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>3080</v>
-      </c>
-      <c r="G2" s="34" t="s">
-        <v>3081</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>3082</v>
-      </c>
-      <c r="I2" s="27">
-        <f t="shared" ref="I2:I11" si="0">VLOOKUP(L2,$B$14:$C$15,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
-      <c r="L2" t="s">
-        <v>3083</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="24">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3257</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>3084</v>
-      </c>
-      <c r="D3" s="37">
-        <v>29465</v>
-      </c>
-      <c r="E3" s="34">
-        <v>87</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>3085</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>3086</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>3087</v>
-      </c>
-      <c r="I3" s="27">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J3" s="36">
-        <v>2</v>
-      </c>
-      <c r="L3" t="s">
-        <v>3088</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="24">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3258</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>3089</v>
-      </c>
-      <c r="D4" s="37">
-        <v>29647</v>
-      </c>
-      <c r="E4" s="34">
-        <v>10</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>3090</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>3091</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>3092</v>
-      </c>
-      <c r="I4" s="27">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J4" s="36">
-        <v>2</v>
-      </c>
-      <c r="L4" t="s">
-        <v>3083</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="24">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3259</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>3093</v>
-      </c>
-      <c r="D5" s="37">
-        <v>29841</v>
-      </c>
-      <c r="E5" s="34">
-        <v>63</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>3094</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>3095</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>3096</v>
-      </c>
-      <c r="I5" s="27">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J5" s="36">
-        <v>2</v>
-      </c>
-      <c r="L5" t="s">
-        <v>3088</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="24">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3260</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>3097</v>
-      </c>
-      <c r="D6" s="37">
-        <v>30511</v>
-      </c>
-      <c r="E6" s="34">
-        <v>69</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>3098</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>3099</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>3100</v>
-      </c>
-      <c r="I6" s="27">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J6" s="36">
-        <v>2</v>
-      </c>
-      <c r="L6" t="s">
-        <v>3088</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="24">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3261</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>3101</v>
-      </c>
-      <c r="D7" s="37">
-        <v>29439</v>
-      </c>
-      <c r="E7" s="34">
-        <v>78</v>
-      </c>
-      <c r="F7" s="34" t="s">
-        <v>3102</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>3103</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>3104</v>
-      </c>
-      <c r="I7" s="27">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J7" s="36">
-        <v>2</v>
-      </c>
-      <c r="L7" t="s">
-        <v>3083</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="24">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3262</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>3105</v>
-      </c>
-      <c r="D8" s="37">
-        <v>35013</v>
-      </c>
-      <c r="E8" s="34">
-        <v>59</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>3106</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>3107</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>3108</v>
-      </c>
-      <c r="I8" s="27">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J8" s="36">
-        <v>2</v>
-      </c>
-      <c r="L8" t="s">
-        <v>3083</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="24">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3263</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>3109</v>
-      </c>
-      <c r="D9" s="37">
-        <v>31006</v>
-      </c>
-      <c r="E9" s="34">
-        <v>28</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>3110</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>3111</v>
-      </c>
-      <c r="H9" s="34" t="s">
-        <v>3042</v>
-      </c>
-      <c r="I9" s="27">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J9" s="36">
-        <v>2</v>
-      </c>
-      <c r="L9" t="s">
-        <v>3083</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="24">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3264</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>3112</v>
-      </c>
-      <c r="D10" s="37">
-        <v>32522</v>
-      </c>
-      <c r="E10" s="34">
-        <v>57</v>
-      </c>
-      <c r="F10" s="34" t="s">
-        <v>3113</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>3114</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>3037</v>
-      </c>
-      <c r="I10" s="27">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J10" s="36">
-        <v>2</v>
-      </c>
-      <c r="L10" t="s">
-        <v>3088</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="28">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3265</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>3115</v>
-      </c>
-      <c r="D11" s="38">
-        <v>29941</v>
-      </c>
-      <c r="E11" s="35">
-        <v>63</v>
-      </c>
-      <c r="F11" s="35" t="s">
-        <v>3116</v>
-      </c>
-      <c r="G11" s="35" t="s">
-        <v>3117</v>
-      </c>
-      <c r="H11" s="35" t="s">
-        <v>3039</v>
-      </c>
-      <c r="I11" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J11" s="36">
-        <v>2</v>
-      </c>
-      <c r="L11" t="s">
-        <v>3083</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D12" s="39"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>3078</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>3083</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>3088</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>